--- a/biology/Botanique/Thalassionemataceae/Thalassionemataceae.xlsx
+++ b/biology/Botanique/Thalassionemataceae/Thalassionemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thalassionemataceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Thalassionematales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Thalassionema, dérivé du grec θαλασα / thalassa, mer, et de νήμα / nema, fil, littéralement « fil de mer », en référence à la forme effilée de cette diatomée marine. 
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (10 mai 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (10 mai 2022) :
 Lioloma Hasle, 1996
 Thalassionema Grunow ex Mereschkowsky, 1902 - genre type
 Thalassiothrix Cleve &amp; Grunow, 1880
@@ -631,9 +651,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thalassionemataceae Round, 1990[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thalassionemataceae Round, 1990.
 </t>
         </is>
       </c>
@@ -662,7 +684,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera. pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
